--- a/hsr/hsr_updated/himeko.xlsx
+++ b/hsr/hsr_updated/himeko.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,16 +502,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B2" t="n">
-        <v>142</v>
+        <v>335</v>
       </c>
       <c r="C2" t="n">
-        <v>102</v>
+        <v>241</v>
       </c>
       <c r="D2" t="n">
-        <v>59</v>
+        <v>139</v>
       </c>
       <c r="E2" t="n">
         <v>96</v>
@@ -543,37 +543,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="B3" t="n">
-        <v>277</v>
+        <v>463</v>
       </c>
       <c r="C3" t="n">
-        <v>200</v>
+        <v>334</v>
       </c>
       <c r="D3" t="n">
-        <v>115</v>
+        <v>193</v>
       </c>
       <c r="E3" t="n">
         <v>96</v>
       </c>
       <c r="F3" t="n">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9607843137254902</v>
+        <v>0.3858921161825726</v>
       </c>
       <c r="H3" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9491525423728814</v>
+        <v>0.3884892086330936</v>
       </c>
       <c r="J3" t="n">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9507042253521126</v>
+        <v>0.382089552238806</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B4" t="n">
-        <v>406</v>
+        <v>591</v>
       </c>
       <c r="C4" t="n">
-        <v>293</v>
+        <v>427</v>
       </c>
       <c r="D4" t="n">
-        <v>169</v>
+        <v>246</v>
       </c>
       <c r="E4" t="n">
         <v>96</v>
@@ -602,19 +602,19 @@
         <v>93</v>
       </c>
       <c r="G4" t="n">
-        <v>0.465</v>
+        <v>0.2784431137724551</v>
       </c>
       <c r="H4" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4695652173913044</v>
+        <v>0.2746113989637305</v>
       </c>
       <c r="J4" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K4" t="n">
-        <v>0.4657039711191336</v>
+        <v>0.2764578833693305</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -625,37 +625,37 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B5" t="n">
-        <v>534</v>
+        <v>719</v>
       </c>
       <c r="C5" t="n">
-        <v>386</v>
+        <v>519</v>
       </c>
       <c r="D5" t="n">
-        <v>222</v>
+        <v>299</v>
       </c>
       <c r="E5" t="n">
         <v>96</v>
       </c>
       <c r="F5" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3174061433447099</v>
+        <v>0.2154566744730679</v>
       </c>
       <c r="H5" t="n">
         <v>53</v>
       </c>
       <c r="I5" t="n">
-        <v>0.3136094674556213</v>
+        <v>0.2154471544715447</v>
       </c>
       <c r="J5" t="n">
         <v>128</v>
       </c>
       <c r="K5" t="n">
-        <v>0.3152709359605911</v>
+        <v>0.2165820642978003</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -666,37 +666,37 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="B6" t="n">
-        <v>662</v>
+        <v>848</v>
       </c>
       <c r="C6" t="n">
-        <v>478</v>
+        <v>612</v>
       </c>
       <c r="D6" t="n">
-        <v>276</v>
+        <v>353</v>
       </c>
       <c r="E6" t="n">
         <v>96</v>
       </c>
       <c r="F6" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2383419689119171</v>
+        <v>0.1791907514450867</v>
       </c>
       <c r="H6" t="n">
         <v>54</v>
       </c>
       <c r="I6" t="n">
-        <v>0.2432432432432433</v>
+        <v>0.1806020066889632</v>
       </c>
       <c r="J6" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2397003745318352</v>
+        <v>0.1794158553546593</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B7" t="n">
-        <v>791</v>
+        <v>976</v>
       </c>
       <c r="C7" t="n">
-        <v>571</v>
+        <v>705</v>
       </c>
       <c r="D7" t="n">
-        <v>329</v>
+        <v>406</v>
       </c>
       <c r="E7" t="n">
         <v>96</v>
@@ -725,19 +725,19 @@
         <v>93</v>
       </c>
       <c r="G7" t="n">
-        <v>0.194560669456067</v>
+        <v>0.1519607843137255</v>
       </c>
       <c r="H7" t="n">
         <v>53</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1920289855072464</v>
+        <v>0.1501416430594901</v>
       </c>
       <c r="J7" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1948640483383686</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -748,83 +748,42 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="B8" t="n">
-        <v>919</v>
+        <v>1047</v>
       </c>
       <c r="C8" t="n">
-        <v>664</v>
+        <v>756</v>
       </c>
       <c r="D8" t="n">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="E8" t="n">
         <v>96</v>
       </c>
       <c r="F8" t="n">
-        <v>93</v>
+        <v>51</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1628721541155867</v>
+        <v>0.07234042553191489</v>
       </c>
       <c r="H8" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="I8" t="n">
-        <v>0.1641337386018237</v>
+        <v>0.07389162561576355</v>
       </c>
       <c r="J8" t="n">
-        <v>128</v>
+        <v>71</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1618204804045512</v>
+        <v>0.07274590163934426</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>80</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1047</v>
-      </c>
-      <c r="C9" t="n">
-        <v>756</v>
-      </c>
-      <c r="D9" t="n">
-        <v>436</v>
-      </c>
-      <c r="E9" t="n">
-        <v>96</v>
-      </c>
-      <c r="F9" t="n">
-        <v>92</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1385542168674699</v>
-      </c>
-      <c r="H9" t="n">
-        <v>53</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.1383812010443864</v>
-      </c>
-      <c r="J9" t="n">
-        <v>128</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.1392818280739935</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>

--- a/hsr/hsr_updated/himeko.xlsx
+++ b/hsr/hsr_updated/himeko.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,16 +502,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>335</v>
+        <v>142</v>
       </c>
       <c r="C2" t="n">
-        <v>241</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>139</v>
+        <v>59</v>
       </c>
       <c r="E2" t="n">
         <v>96</v>
@@ -543,37 +543,37 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B3" t="n">
-        <v>463</v>
+        <v>277</v>
       </c>
       <c r="C3" t="n">
-        <v>334</v>
+        <v>200</v>
       </c>
       <c r="D3" t="n">
-        <v>193</v>
+        <v>115</v>
       </c>
       <c r="E3" t="n">
         <v>96</v>
       </c>
       <c r="F3" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3858921161825726</v>
+        <v>0.9607843137254902</v>
       </c>
       <c r="H3" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="I3" t="n">
-        <v>0.3884892086330936</v>
+        <v>0.9491525423728814</v>
       </c>
       <c r="J3" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="K3" t="n">
-        <v>0.382089552238806</v>
+        <v>0.9507042253521126</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -584,16 +584,16 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B4" t="n">
-        <v>591</v>
+        <v>406</v>
       </c>
       <c r="C4" t="n">
-        <v>427</v>
+        <v>293</v>
       </c>
       <c r="D4" t="n">
-        <v>246</v>
+        <v>169</v>
       </c>
       <c r="E4" t="n">
         <v>96</v>
@@ -602,19 +602,19 @@
         <v>93</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2784431137724551</v>
+        <v>0.465</v>
       </c>
       <c r="H4" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2746113989637305</v>
+        <v>0.4695652173913044</v>
       </c>
       <c r="J4" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K4" t="n">
-        <v>0.2764578833693305</v>
+        <v>0.4657039711191336</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -625,37 +625,37 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="B5" t="n">
-        <v>719</v>
+        <v>534</v>
       </c>
       <c r="C5" t="n">
-        <v>519</v>
+        <v>386</v>
       </c>
       <c r="D5" t="n">
-        <v>299</v>
+        <v>222</v>
       </c>
       <c r="E5" t="n">
         <v>96</v>
       </c>
       <c r="F5" t="n">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2154566744730679</v>
+        <v>0.3174061433447099</v>
       </c>
       <c r="H5" t="n">
         <v>53</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2154471544715447</v>
+        <v>0.3136094674556213</v>
       </c>
       <c r="J5" t="n">
         <v>128</v>
       </c>
       <c r="K5" t="n">
-        <v>0.2165820642978003</v>
+        <v>0.3152709359605911</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -666,37 +666,37 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B6" t="n">
-        <v>848</v>
+        <v>662</v>
       </c>
       <c r="C6" t="n">
-        <v>612</v>
+        <v>478</v>
       </c>
       <c r="D6" t="n">
-        <v>353</v>
+        <v>276</v>
       </c>
       <c r="E6" t="n">
         <v>96</v>
       </c>
       <c r="F6" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1791907514450867</v>
+        <v>0.2383419689119171</v>
       </c>
       <c r="H6" t="n">
         <v>54</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1806020066889632</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="J6" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1794158553546593</v>
+        <v>0.2397003745318352</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B7" t="n">
-        <v>976</v>
+        <v>791</v>
       </c>
       <c r="C7" t="n">
-        <v>705</v>
+        <v>571</v>
       </c>
       <c r="D7" t="n">
-        <v>406</v>
+        <v>329</v>
       </c>
       <c r="E7" t="n">
         <v>96</v>
@@ -725,19 +725,19 @@
         <v>93</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1519607843137255</v>
+        <v>0.194560669456067</v>
       </c>
       <c r="H7" t="n">
         <v>53</v>
       </c>
       <c r="I7" t="n">
-        <v>0.1501416430594901</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="J7" t="n">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1509433962264151</v>
+        <v>0.1948640483383686</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -748,42 +748,83 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B8" t="n">
-        <v>1047</v>
+        <v>919</v>
       </c>
       <c r="C8" t="n">
-        <v>756</v>
+        <v>664</v>
       </c>
       <c r="D8" t="n">
-        <v>436</v>
+        <v>383</v>
       </c>
       <c r="E8" t="n">
         <v>96</v>
       </c>
       <c r="F8" t="n">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="G8" t="n">
-        <v>0.07234042553191489</v>
+        <v>0.1628721541155867</v>
       </c>
       <c r="H8" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="I8" t="n">
-        <v>0.07389162561576355</v>
+        <v>0.1641337386018237</v>
       </c>
       <c r="J8" t="n">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="K8" t="n">
-        <v>0.07274590163934426</v>
+        <v>0.1618204804045512</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>80</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1047</v>
+      </c>
+      <c r="C9" t="n">
+        <v>756</v>
+      </c>
+      <c r="D9" t="n">
+        <v>436</v>
+      </c>
+      <c r="E9" t="n">
+        <v>96</v>
+      </c>
+      <c r="F9" t="n">
+        <v>92</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.1385542168674699</v>
+      </c>
+      <c r="H9" t="n">
+        <v>53</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0.1383812010443864</v>
+      </c>
+      <c r="J9" t="n">
+        <v>128</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.1392818280739935</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
         <v>0</v>
       </c>
     </row>
